--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Happiest Minds Technologies Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Yearly Results of Happiest Minds Technologies(in Rs. Cr.)</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>698.21</t>
+  </si>
+  <si>
+    <t>760.96</t>
+  </si>
+  <si>
+    <t>1,033.54</t>
+  </si>
+  <si>
+    <t>1,332.55</t>
+  </si>
+  <si>
+    <t>1,472.88</t>
   </si>
 </sst>
 </file>
@@ -530,8 +545,8 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>698.21</v>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
       <c r="C2">
         <v>698.21</v>
@@ -598,8 +613,8 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>760.96</v>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
       <c r="C3">
         <v>760.96</v>
@@ -666,8 +681,8 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>729.585</v>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4">
         <v>1033.54</v>
@@ -734,8 +749,8 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>729.585</v>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1332.55</v>
@@ -802,8 +817,8 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>729.585</v>
+      <c r="B6" t="s">
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1472.88</v>
